--- a/database/industries/ghand/ghesafha/cost/yearly.xlsx
+++ b/database/industries/ghand/ghesafha/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD77E0F-0F95-487C-B48A-D98DC886383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +360,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -371,7 +372,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -418,6 +419,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -453,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/ghand/ghesafha/cost/yearly.xlsx
+++ b/database/industries/ghand/ghesafha/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD77E0F-0F95-487C-B48A-D98DC886383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAB14D-23B5-4BA7-8C80-71F75D8AE51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,16 +100,16 @@
     <t>تن</t>
   </si>
   <si>
+    <t>مواد بسته بندی</t>
+  </si>
+  <si>
+    <t>عدد</t>
+  </si>
+  <si>
+    <t>شکرخام</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>مواد بسته بندی</t>
-  </si>
-  <si>
-    <t>عدد</t>
-  </si>
-  <si>
-    <t>شکرخام</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -644,12 +644,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -659,7 +659,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +693,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,7 +727,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -759,139 +759,139 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3021199</v>
+        <v>1877203</v>
       </c>
       <c r="F10" s="9">
-        <v>1877203</v>
+        <v>2603922</v>
       </c>
       <c r="G10" s="9">
-        <v>2603922</v>
+        <v>3465325</v>
       </c>
       <c r="H10" s="9">
-        <v>3465325</v>
+        <v>7464065</v>
       </c>
       <c r="I10" s="9">
-        <v>7464065</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11080327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>18839</v>
+        <v>19849</v>
       </c>
       <c r="F11" s="11">
-        <v>19849</v>
+        <v>23289</v>
       </c>
       <c r="G11" s="11">
-        <v>23289</v>
+        <v>39292</v>
       </c>
       <c r="H11" s="11">
-        <v>39292</v>
+        <v>55890</v>
       </c>
       <c r="I11" s="11">
-        <v>55890</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>106302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>414756</v>
+        <v>370178</v>
       </c>
       <c r="F12" s="9">
-        <v>370178</v>
+        <v>360574</v>
       </c>
       <c r="G12" s="9">
-        <v>360574</v>
+        <v>490555</v>
       </c>
       <c r="H12" s="9">
-        <v>490555</v>
+        <v>997711</v>
       </c>
       <c r="I12" s="9">
-        <v>997711</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1470767</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>3454794</v>
+        <v>2267230</v>
       </c>
       <c r="F13" s="13">
-        <v>2267230</v>
+        <v>2987785</v>
       </c>
       <c r="G13" s="13">
-        <v>2987785</v>
+        <v>3995172</v>
       </c>
       <c r="H13" s="13">
-        <v>3995172</v>
+        <v>8517666</v>
       </c>
       <c r="I13" s="13">
-        <v>8517666</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12657396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-3907</v>
+        <v>-4864</v>
       </c>
       <c r="F14" s="9">
-        <v>-4864</v>
+        <v>-5181</v>
       </c>
       <c r="G14" s="9">
-        <v>-5181</v>
+        <v>-8533</v>
       </c>
       <c r="H14" s="9">
-        <v>-8533</v>
+        <v>-9847</v>
       </c>
       <c r="I14" s="9">
-        <v>-9847</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>3450887</v>
+        <v>2262366</v>
       </c>
       <c r="F15" s="13">
-        <v>2262366</v>
+        <v>2982604</v>
       </c>
       <c r="G15" s="13">
-        <v>2982604</v>
+        <v>3986639</v>
       </c>
       <c r="H15" s="13">
-        <v>3986639</v>
+        <v>8507819</v>
       </c>
       <c r="I15" s="13">
-        <v>8507819</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12657387</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -935,139 +935,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>3450887</v>
+        <v>2262366</v>
       </c>
       <c r="F18" s="15">
-        <v>2262366</v>
+        <v>2982604</v>
       </c>
       <c r="G18" s="15">
-        <v>2982604</v>
+        <v>3986639</v>
       </c>
       <c r="H18" s="15">
-        <v>3986639</v>
+        <v>8507819</v>
       </c>
       <c r="I18" s="15">
-        <v>8507819</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12657387</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>445542</v>
+        <v>803732</v>
       </c>
       <c r="F19" s="11">
-        <v>803732</v>
+        <v>644053</v>
       </c>
       <c r="G19" s="11">
-        <v>644053</v>
+        <v>226552</v>
       </c>
       <c r="H19" s="11">
-        <v>226552</v>
+        <v>204746</v>
       </c>
       <c r="I19" s="11">
-        <v>204746</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30731</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-803732</v>
+        <v>-644053</v>
       </c>
       <c r="F20" s="9">
-        <v>-644053</v>
+        <v>-226552</v>
       </c>
       <c r="G20" s="9">
-        <v>-226552</v>
+        <v>-204746</v>
       </c>
       <c r="H20" s="9">
-        <v>-204746</v>
+        <v>-30731</v>
       </c>
       <c r="I20" s="9">
-        <v>-30731</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-194994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>3092697</v>
+        <v>2422045</v>
       </c>
       <c r="F21" s="13">
-        <v>2422045</v>
+        <v>3400105</v>
       </c>
       <c r="G21" s="13">
-        <v>3400105</v>
+        <v>4008445</v>
       </c>
       <c r="H21" s="13">
-        <v>4008445</v>
+        <v>8681834</v>
       </c>
       <c r="I21" s="13">
-        <v>8681834</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12493124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>39409</v>
+        <v>71558</v>
       </c>
       <c r="F22" s="9">
-        <v>71558</v>
+        <v>202319</v>
       </c>
       <c r="G22" s="9">
-        <v>202319</v>
+        <v>254409</v>
       </c>
       <c r="H22" s="9">
-        <v>254409</v>
+        <v>520074</v>
       </c>
       <c r="I22" s="9">
-        <v>520074</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>665847</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>3132106</v>
+        <v>2493603</v>
       </c>
       <c r="F23" s="13">
-        <v>2493603</v>
+        <v>3602424</v>
       </c>
       <c r="G23" s="13">
-        <v>3602424</v>
+        <v>4262854</v>
       </c>
       <c r="H23" s="13">
-        <v>4262854</v>
+        <v>9201908</v>
       </c>
       <c r="I23" s="13">
-        <v>9201908</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13158971</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1077,7 +1077,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,7 +1097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1129,7 +1129,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1137,59 +1137,59 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>45027</v>
+      </c>
+      <c r="F30" s="11">
+        <v>25090</v>
+      </c>
+      <c r="G30" s="11">
+        <v>61984</v>
+      </c>
+      <c r="H30" s="11">
+        <v>87514</v>
+      </c>
+      <c r="I30" s="11">
+        <v>102965</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
-        <v>45027</v>
-      </c>
-      <c r="G30" s="11">
-        <v>25090</v>
-      </c>
-      <c r="H30" s="11">
-        <v>61984</v>
-      </c>
-      <c r="I30" s="11">
-        <v>87514</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -1201,29 +1201,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>45027</v>
       </c>
       <c r="F32" s="13">
-        <v>45027</v>
+        <v>25090</v>
       </c>
       <c r="G32" s="13">
-        <v>25090</v>
+        <v>61984</v>
       </c>
       <c r="H32" s="13">
-        <v>61984</v>
+        <v>87514</v>
       </c>
       <c r="I32" s="13">
-        <v>87514</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102965</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1285,7 +1285,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1293,62 +1293,62 @@
         <v>25</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="9">
+        <v>561917</v>
+      </c>
+      <c r="F38" s="9">
+        <v>307669</v>
+      </c>
+      <c r="G38" s="9">
+        <v>447061</v>
+      </c>
+      <c r="H38" s="9">
+        <v>513716</v>
+      </c>
+      <c r="I38" s="9">
+        <v>502789</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="9">
-        <v>561917</v>
-      </c>
-      <c r="G38" s="9">
-        <v>307669</v>
-      </c>
-      <c r="H38" s="9">
-        <v>447061</v>
-      </c>
-      <c r="I38" s="9">
-        <v>513716</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>1978672</v>
+      </c>
+      <c r="F39" s="11">
+        <v>3068250</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2639783</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2954131</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1217526</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="11">
-        <v>1978672</v>
-      </c>
-      <c r="G39" s="11">
-        <v>3068250</v>
-      </c>
-      <c r="H39" s="11">
-        <v>2639783</v>
-      </c>
-      <c r="I39" s="11">
-        <v>2954131</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F40" s="9">
+        <v>30653</v>
       </c>
       <c r="G40" s="9">
-        <v>30653</v>
+        <v>0</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
@@ -1357,29 +1357,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>2540589</v>
       </c>
       <c r="F41" s="13">
-        <v>2540589</v>
+        <v>3406572</v>
       </c>
       <c r="G41" s="13">
-        <v>3406572</v>
+        <v>3086844</v>
       </c>
       <c r="H41" s="13">
-        <v>3086844</v>
+        <v>3467847</v>
       </c>
       <c r="I41" s="13">
-        <v>3467847</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1720315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1389,7 +1389,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1441,7 +1441,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1449,62 +1449,62 @@
         <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="9">
+        <v>561917</v>
+      </c>
+      <c r="F47" s="9">
+        <v>307669</v>
+      </c>
+      <c r="G47" s="9">
+        <v>447061</v>
+      </c>
+      <c r="H47" s="9">
+        <v>513716</v>
+      </c>
+      <c r="I47" s="9">
+        <v>502789</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="9">
-        <v>561917</v>
-      </c>
-      <c r="G47" s="9">
-        <v>307669</v>
-      </c>
-      <c r="H47" s="9">
-        <v>447061</v>
-      </c>
-      <c r="I47" s="9">
-        <v>513716</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>1998609</v>
+      </c>
+      <c r="F48" s="11">
+        <v>3024122</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2614253</v>
+      </c>
+      <c r="H48" s="11">
+        <v>2938680</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1246342</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1998609</v>
-      </c>
-      <c r="G48" s="11">
-        <v>3024122</v>
-      </c>
-      <c r="H48" s="11">
-        <v>2614253</v>
-      </c>
-      <c r="I48" s="11">
-        <v>2938680</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F49" s="9">
+        <v>30653</v>
       </c>
       <c r="G49" s="9">
-        <v>30653</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
@@ -1513,29 +1513,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>2560526</v>
       </c>
       <c r="F50" s="13">
-        <v>2560526</v>
+        <v>3362444</v>
       </c>
       <c r="G50" s="13">
-        <v>3362444</v>
+        <v>3061314</v>
       </c>
       <c r="H50" s="13">
-        <v>3061314</v>
+        <v>3452396</v>
       </c>
       <c r="I50" s="13">
-        <v>3452396</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1749131</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1545,7 +1545,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1555,7 +1555,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1565,7 +1565,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1597,7 +1597,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1605,59 +1605,59 @@
         <v>25</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11">
+        <v>25090</v>
+      </c>
+      <c r="F57" s="11">
+        <v>69218</v>
+      </c>
+      <c r="G57" s="11">
+        <v>87514</v>
+      </c>
+      <c r="H57" s="11">
+        <v>102965</v>
+      </c>
+      <c r="I57" s="11">
+        <v>74149</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="11">
-        <v>25090</v>
-      </c>
-      <c r="G57" s="11">
-        <v>69218</v>
-      </c>
-      <c r="H57" s="11">
-        <v>87514</v>
-      </c>
-      <c r="I57" s="11">
-        <v>102965</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -1669,29 +1669,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>0</v>
+        <v>25090</v>
       </c>
       <c r="F59" s="13">
-        <v>25090</v>
+        <v>69218</v>
       </c>
       <c r="G59" s="13">
-        <v>69218</v>
+        <v>87514</v>
       </c>
       <c r="H59" s="13">
-        <v>87514</v>
+        <v>102965</v>
       </c>
       <c r="I59" s="13">
-        <v>102965</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>33</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1753,7 +1753,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1761,59 +1761,59 @@
         <v>34</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
+      <c r="E66" s="11">
+        <v>915</v>
       </c>
       <c r="F66" s="11">
-        <v>915</v>
+        <v>813</v>
       </c>
       <c r="G66" s="11">
-        <v>813</v>
+        <v>1685</v>
       </c>
       <c r="H66" s="11">
-        <v>1685</v>
+        <v>2734</v>
       </c>
       <c r="I66" s="11">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
@@ -1825,29 +1825,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="F68" s="13">
-        <v>915</v>
+        <v>813</v>
       </c>
       <c r="G68" s="13">
-        <v>813</v>
+        <v>1685</v>
       </c>
       <c r="H68" s="13">
-        <v>1685</v>
+        <v>2734</v>
       </c>
       <c r="I68" s="13">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1867,7 +1867,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1877,7 +1877,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>35</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1917,62 +1917,62 @@
         <v>34</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="9">
+        <v>1847813</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1488052</v>
+      </c>
+      <c r="G74" s="9">
+        <v>3386225</v>
+      </c>
+      <c r="H74" s="9">
+        <v>7315842</v>
+      </c>
+      <c r="I74" s="9">
+        <v>11016443</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F74" s="9">
-        <v>1847813</v>
-      </c>
-      <c r="G74" s="9">
-        <v>1488052</v>
-      </c>
-      <c r="H74" s="9">
-        <v>3386225</v>
-      </c>
-      <c r="I74" s="9">
-        <v>7315842</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
+      <c r="E75" s="11">
+        <v>29288</v>
       </c>
       <c r="F75" s="11">
-        <v>29288</v>
+        <v>63421</v>
       </c>
       <c r="G75" s="11">
-        <v>63421</v>
+        <v>80149</v>
       </c>
       <c r="H75" s="11">
-        <v>80149</v>
+        <v>150587</v>
       </c>
       <c r="I75" s="11">
-        <v>150587</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62532</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1087847</v>
       </c>
       <c r="G76" s="9">
-        <v>1087847</v>
+        <v>0</v>
       </c>
       <c r="H76" s="9">
         <v>0</v>
@@ -1981,29 +1981,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>1877101</v>
       </c>
       <c r="F77" s="13">
-        <v>1877101</v>
+        <v>2639320</v>
       </c>
       <c r="G77" s="13">
-        <v>2639320</v>
+        <v>3466374</v>
       </c>
       <c r="H77" s="13">
-        <v>3466374</v>
+        <v>7466429</v>
       </c>
       <c r="I77" s="13">
-        <v>7466429</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11078975</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2013,7 +2013,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2023,7 +2023,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2033,7 +2033,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>36</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2065,7 +2065,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2073,62 +2073,62 @@
         <v>34</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="9">
+        <v>1847813</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1488052</v>
+      </c>
+      <c r="G83" s="9">
+        <v>3386225</v>
+      </c>
+      <c r="H83" s="9">
+        <v>7315842</v>
+      </c>
+      <c r="I83" s="9">
+        <v>11016443</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F83" s="9">
-        <v>1847813</v>
-      </c>
-      <c r="G83" s="9">
-        <v>1488052</v>
-      </c>
-      <c r="H83" s="9">
-        <v>3386225</v>
-      </c>
-      <c r="I83" s="9">
-        <v>7315842</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>29390</v>
       </c>
       <c r="F84" s="11">
-        <v>29390</v>
+        <v>62549</v>
       </c>
       <c r="G84" s="11">
-        <v>62549</v>
+        <v>79100</v>
       </c>
       <c r="H84" s="11">
-        <v>79100</v>
+        <v>148223</v>
       </c>
       <c r="I84" s="11">
-        <v>148223</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63884</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1087847</v>
       </c>
       <c r="G85" s="9">
-        <v>1087847</v>
+        <v>0</v>
       </c>
       <c r="H85" s="9">
         <v>0</v>
@@ -2137,29 +2137,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>1877203</v>
       </c>
       <c r="F86" s="13">
-        <v>1877203</v>
+        <v>2638448</v>
       </c>
       <c r="G86" s="13">
-        <v>2638448</v>
+        <v>3465325</v>
       </c>
       <c r="H86" s="13">
-        <v>3465325</v>
+        <v>7464065</v>
       </c>
       <c r="I86" s="13">
-        <v>7464065</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11080327</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2169,7 +2169,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2179,7 +2179,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2189,7 +2189,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>37</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2221,7 +2221,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2229,59 +2229,59 @@
         <v>34</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
-        <v>0</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>26</v>
+      <c r="E93" s="11">
+        <v>813</v>
       </c>
       <c r="F93" s="11">
-        <v>813</v>
+        <v>1685</v>
       </c>
       <c r="G93" s="11">
-        <v>1685</v>
+        <v>2734</v>
       </c>
       <c r="H93" s="11">
-        <v>2734</v>
+        <v>5098</v>
       </c>
       <c r="I93" s="11">
-        <v>5098</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0</v>
       </c>
       <c r="G94" s="9">
         <v>0</v>
@@ -2293,29 +2293,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="F95" s="13">
-        <v>813</v>
+        <v>1685</v>
       </c>
       <c r="G95" s="13">
-        <v>1685</v>
+        <v>2734</v>
       </c>
       <c r="H95" s="13">
-        <v>2734</v>
+        <v>5098</v>
       </c>
       <c r="I95" s="13">
-        <v>5098</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2325,7 +2325,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2345,7 +2345,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2377,31 +2377,31 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>20321</v>
       </c>
       <c r="F101" s="9">
-        <v>20321</v>
+        <v>32403</v>
       </c>
       <c r="G101" s="9">
-        <v>32403</v>
+        <v>27184</v>
       </c>
       <c r="H101" s="9">
-        <v>27184</v>
+        <v>31241</v>
       </c>
       <c r="I101" s="9">
-        <v>31241</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49512</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2411,7 +2411,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2421,7 +2421,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2431,7 +2431,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>40</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2463,7 +2463,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2471,71 +2471,71 @@
         <v>41</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="9">
+        <v>3288409</v>
+      </c>
+      <c r="F107" s="9">
+        <v>4836535</v>
+      </c>
+      <c r="G107" s="9">
+        <v>7574414</v>
+      </c>
+      <c r="H107" s="9">
+        <v>14241024</v>
+      </c>
+      <c r="I107" s="9">
+        <v>21910668</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F107" s="9">
-        <v>3288409</v>
-      </c>
-      <c r="G107" s="9">
-        <v>4836535</v>
-      </c>
-      <c r="H107" s="9">
-        <v>7574414</v>
-      </c>
-      <c r="I107" s="9">
-        <v>14241024</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>14802</v>
       </c>
       <c r="F108" s="11">
-        <v>14802</v>
+        <v>20670</v>
       </c>
       <c r="G108" s="11">
-        <v>20670</v>
+        <v>30362</v>
       </c>
       <c r="H108" s="11">
-        <v>30362</v>
+        <v>50975</v>
       </c>
       <c r="I108" s="11">
-        <v>50975</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51360</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="9">
+        <v>29</v>
+      </c>
+      <c r="F109" s="9">
         <v>35489088</v>
       </c>
+      <c r="G109" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H109" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2545,7 +2545,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2565,7 +2565,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>42</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2597,7 +2597,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>24</v>
       </c>
@@ -2605,71 +2605,71 @@
         <v>41</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="9">
+        <v>3288409</v>
+      </c>
+      <c r="F115" s="9">
+        <v>4836535</v>
+      </c>
+      <c r="G115" s="9">
+        <v>7574414</v>
+      </c>
+      <c r="H115" s="9">
+        <v>14241024</v>
+      </c>
+      <c r="I115" s="9">
+        <v>21910668</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F115" s="9">
-        <v>3288409</v>
-      </c>
-      <c r="G115" s="9">
-        <v>4836535</v>
-      </c>
-      <c r="H115" s="9">
-        <v>7574414</v>
-      </c>
-      <c r="I115" s="9">
-        <v>14241024</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
+      <c r="E116" s="11">
+        <v>14705</v>
       </c>
       <c r="F116" s="11">
-        <v>14705</v>
+        <v>20683</v>
       </c>
       <c r="G116" s="11">
-        <v>20683</v>
+        <v>30257</v>
       </c>
       <c r="H116" s="11">
-        <v>30257</v>
+        <v>50439</v>
       </c>
       <c r="I116" s="11">
-        <v>50439</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51257</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="9">
+        <v>29</v>
+      </c>
+      <c r="F117" s="9">
         <v>35489088</v>
       </c>
+      <c r="G117" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H117" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2689,7 +2689,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2699,7 +2699,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>43</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2731,31 +2731,31 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>26</v>
+      <c r="E123" s="9">
+        <v>32403</v>
       </c>
       <c r="F123" s="9">
-        <v>32403</v>
+        <v>24343</v>
       </c>
       <c r="G123" s="9">
-        <v>24343</v>
+        <v>31241</v>
       </c>
       <c r="H123" s="9">
-        <v>31241</v>
+        <v>49512</v>
       </c>
       <c r="I123" s="9">
-        <v>49512</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50520</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2765,7 +2765,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2775,7 +2775,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2785,7 +2785,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2817,7 +2817,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>45</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>46</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>47</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>48</v>
       </c>
@@ -2905,95 +2905,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>12761</v>
+        <v>10611</v>
       </c>
       <c r="F133" s="9">
-        <v>10611</v>
+        <v>13971</v>
       </c>
       <c r="G133" s="9">
-        <v>13971</v>
+        <v>11218</v>
       </c>
       <c r="H133" s="9">
-        <v>11218</v>
+        <v>39679</v>
       </c>
       <c r="I133" s="9">
-        <v>39679</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62604</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>76282</v>
+        <v>54669</v>
       </c>
       <c r="F134" s="11">
-        <v>54669</v>
+        <v>45868</v>
       </c>
       <c r="G134" s="11">
-        <v>45868</v>
+        <v>52011</v>
       </c>
       <c r="H134" s="11">
-        <v>52011</v>
+        <v>249786</v>
       </c>
       <c r="I134" s="11">
-        <v>262268</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227925</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>26412</v>
+        <v>30621</v>
       </c>
       <c r="F135" s="9">
-        <v>30621</v>
+        <v>20789</v>
       </c>
       <c r="G135" s="9">
-        <v>20789</v>
+        <v>24127</v>
       </c>
       <c r="H135" s="9">
-        <v>24127</v>
+        <v>27857</v>
       </c>
       <c r="I135" s="9">
-        <v>30069</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51114</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>191887</v>
+        <v>208253</v>
       </c>
       <c r="F136" s="11">
-        <v>208253</v>
+        <v>245550</v>
       </c>
       <c r="G136" s="11">
-        <v>245550</v>
+        <v>353865</v>
       </c>
       <c r="H136" s="11">
-        <v>353865</v>
+        <v>509785</v>
       </c>
       <c r="I136" s="11">
-        <v>574863</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>784875</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>53</v>
       </c>
@@ -3015,48 +3015,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>107414</v>
+        <v>66024</v>
       </c>
       <c r="F138" s="11">
-        <v>66024</v>
+        <v>34396</v>
       </c>
       <c r="G138" s="11">
-        <v>34396</v>
+        <v>49334</v>
       </c>
       <c r="H138" s="11">
-        <v>49334</v>
+        <v>170604</v>
       </c>
       <c r="I138" s="11">
-        <v>90832</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>344249</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
-        <v>414756</v>
+        <v>370178</v>
       </c>
       <c r="F139" s="15">
-        <v>370178</v>
+        <v>360574</v>
       </c>
       <c r="G139" s="15">
-        <v>360574</v>
+        <v>490555</v>
       </c>
       <c r="H139" s="15">
-        <v>490555</v>
+        <v>997711</v>
       </c>
       <c r="I139" s="15">
-        <v>997711</v>
+        <v>1470767</v>
       </c>
     </row>
   </sheetData>
